--- a/mathTransformed/HMPSTT_(2016-09-08)_55_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-09-08)_55_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Govt. High School Badanaguppe</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Chamarajanagar</t>
         </is>
       </c>
@@ -507,6 +517,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>J S S Girls High School</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Chamarajanagar</t>
         </is>
       </c>
@@ -534,6 +549,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G G H S Gundlupet Town</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Chamarajanagar</t>
         </is>
       </c>
@@ -561,6 +581,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Govt. High School Gumballi Yelandur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Chamarajanagar</t>
         </is>
       </c>
@@ -588,6 +613,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Govt. High School Haradanahalli</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Chamarajanagar</t>
         </is>
       </c>
@@ -615,6 +645,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Govt. High School Kesthur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Chamarajanagara</t>
         </is>
       </c>
@@ -642,6 +677,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Govt. High SchoolNavilur</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Chamarajanagar</t>
         </is>
       </c>
@@ -669,6 +709,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Govt. M G S V Jr. CollegeKollegal</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Chamarajanagar</t>
         </is>
       </c>
@@ -696,6 +741,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>G H S HundipuraGundlupet</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Chamarajanagar</t>
         </is>
       </c>
@@ -723,6 +773,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G H S Ginigera</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -750,6 +805,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G H S ArhalGangavathi</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -777,6 +837,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G H S Hiresindogi</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -804,6 +869,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Shree Shashidhara SwamiPU College TavarageraKustagi</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -831,6 +901,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>Govt. High School AnegundiGangavathi</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -858,6 +933,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G P U College HanamanalKustagi</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -879,7 +959,8 @@
           <t>KOTRESH G</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t xml:space="preserve">KOTRESH </t>
         </is>
@@ -897,6 +978,11 @@
         </is>
       </c>
       <c r="F19" t="inlineStr">
+        <is>
+          <t>Govt. Higher Primary SchoolSangapurGangavati</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>Koppal</t>
         </is>
@@ -925,6 +1011,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G H S Niralagi</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -952,6 +1043,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>G H S Hiresindogi</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -976,6 +1072,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Govt. High School ChalageraKushtagi</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1003,6 +1104,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G H S MandalagiriYelburga</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1028,7 +1134,8 @@
           <t>SUJATA M</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>Govt. P U College for Boys Koppal</t>
         </is>
@@ -1057,6 +1164,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Govt. H S TalakeriYelburga</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1084,6 +1196,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>G H S GundagurthiShahapur</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Yadagir</t>
         </is>
       </c>
@@ -1111,6 +1228,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Govt. P U College (H S) B GudiShahapur</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Yadgir</t>
         </is>
       </c>
@@ -1138,6 +1260,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G H S Lingeri Station</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Yadagir</t>
         </is>
       </c>
@@ -1165,6 +1292,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Govt. High School NaganoorShorapur</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Yadgir</t>
         </is>
       </c>
@@ -1192,6 +1324,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G H S Kadechur</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Yadgir</t>
         </is>
       </c>
@@ -1219,6 +1356,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G H P S Filter bed Shahapur</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Yadagir</t>
         </is>
       </c>
@@ -1246,6 +1388,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G H S Yaktapur</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Yadgir</t>
         </is>
       </c>
@@ -1273,6 +1420,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>G H S HothpathShahapur</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Yadagiri</t>
         </is>
       </c>
@@ -1300,6 +1452,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>G H S HalageraShahapur</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t xml:space="preserve">Yadagiri </t>
         </is>
       </c>
@@ -1327,6 +1484,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>G H S TadibidiShahapur</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Yadgir</t>
         </is>
       </c>
@@ -1354,6 +1516,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>Maharshi Valmiki GramantarAided High School RukmapurShorapur</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Yadagir</t>
         </is>
       </c>
@@ -1381,6 +1548,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>Poojya Shantaveer High SchoolGurmitkal</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Yadagiri</t>
         </is>
       </c>
@@ -1408,6 +1580,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>G H S BilharShahapur</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Yadagir</t>
         </is>
       </c>
@@ -1432,6 +1609,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>G H S YalagiShorapur</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Yadagiri</t>
         </is>
       </c>
@@ -1456,6 +1638,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>Govt. High School AgniShorapur</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Yadagiri</t>
         </is>
       </c>
@@ -1480,6 +1667,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>G H S WandurgaShahapur</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Yadagir</t>
         </is>
       </c>
@@ -1504,6 +1696,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>G G H S KembhaviShorapur</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Yadagir</t>
         </is>
       </c>
@@ -1531,6 +1728,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>G H S Kandkur</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Yadgir</t>
         </is>
       </c>
@@ -1555,6 +1757,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>Govt. M P S HalisagarShahapur</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Yadgir</t>
         </is>
       </c>
@@ -1579,6 +1786,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>Adarsha VidyalayaShahapura</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Yadgir</t>
         </is>
       </c>
@@ -1606,6 +1818,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>Govt. High School (Girls) GogiShahapur</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Yadgiri</t>
         </is>
       </c>
@@ -1633,6 +1850,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>G H S Basavanthpur</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Yadgiri</t>
         </is>
       </c>
@@ -1660,6 +1882,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>Govt. High School KolihalShorapur</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Yadgir</t>
         </is>
       </c>
@@ -1687,6 +1914,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>Govt. High School WadageraShahapur</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Yadgir</t>
         </is>
       </c>
@@ -1711,6 +1943,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>G H S DevargonalShorapur</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Yadgir</t>
         </is>
       </c>
@@ -1735,6 +1972,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>Govt. P U College Boys (H S) Shahapur</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Yadgir</t>
         </is>
       </c>
@@ -1762,6 +2004,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>G H S JogundabhaviShorapur</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Yadagir</t>
         </is>
       </c>
@@ -1786,6 +2033,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>Govt. High School TintaniSurpur</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Yadgir</t>
         </is>
       </c>
@@ -1807,7 +2059,8 @@
           <t>SHANTAPPA A KERUTAGI</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>SHANTAPPA A KERUTAG</t>
         </is>
@@ -1825,6 +2078,11 @@
         </is>
       </c>
       <c r="F55" t="inlineStr">
+        <is>
+          <t>GHS KannekolurShahapur</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>Yadgir</t>
         </is>
@@ -1851,7 +2109,8 @@
           <t>SHREESHAIL SIDDAPUR</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>G H S Sugur,Shorapur Yadagiri</t>
         </is>
@@ -1880,6 +2139,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>Govt. High SchoolGeddalamariShorapur</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>Yadagiri</t>
         </is>
       </c>
@@ -1907,6 +2171,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>Karanataka Aided High School (UKP) KrishnpurShorapur</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>Yadgiri</t>
         </is>
       </c>
@@ -1933,6 +2202,11 @@
         </is>
       </c>
       <c r="F59" t="inlineStr">
+        <is>
+          <t>G C P U CollegeKembhaviSurapur</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>Yadgir</t>
         </is>

--- a/mathTransformed/HMPSTT_(2016-09-08)_55_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-09-08)_55_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,7 +650,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chamarajanagara</t>
+          <t>Chamarajanagar</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,6 @@
           <t>KOTRESH G</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t xml:space="preserve">KOTRESH </t>
@@ -1134,10 +1133,9 @@
           <t>SUJATA M</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Govt. P U College for Boys Koppal</t>
+          <t>Koppal</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1199,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Yadagir</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1263,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Yadagir</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1359,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Yadagir</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1423,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Yadagiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1455,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yadagiri </t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1519,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Yadagir</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1551,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Yadagiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1583,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Yadagir</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1612,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Yadagiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1641,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Yadagiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1672,7 +1670,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Yadagir</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1699,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Yadagir</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1821,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Yadgiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1855,7 +1853,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Yadgiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2007,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Yadagir</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2057,6 @@
           <t>SHANTAPPA A KERUTAGI</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
           <t>SHANTAPPA A KERUTAG</t>
@@ -2109,10 +2106,9 @@
           <t>SHREESHAIL SIDDAPUR</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>G H S Sugur,Shorapur Yadagiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2140,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Yadagiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2172,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Yadgiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
